--- a/Backend/Excel/Final_Fall_Enrollment_Stats.xlsx
+++ b/Backend/Excel/Final_Fall_Enrollment_Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52E95E5-41C6-1F48-ABD9-2321D89E5D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792F78A0-330C-3E4A-BAEA-F7E438774189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{0A1B7B3C-25DC-1D44-8DC2-7F3E13935606}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Student Enrollment</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Percent of female student</t>
+  </si>
+  <si>
+    <t>Student_faculty ratio</t>
   </si>
 </sst>
 </file>
@@ -586,19 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A9A2B-D720-B641-AA73-90D5E2D57CC8}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="8" width="30.83203125" customWidth="1"/>
+    <col min="2" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="34">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="17">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -612,19 +618,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="10">
         <v>2010</v>
       </c>
@@ -638,19 +638,13 @@
         <v>61</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>0.62</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="10">
         <v>2011</v>
       </c>
@@ -664,19 +658,13 @@
         <v>53</v>
       </c>
       <c r="E3" s="2">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <v>0.63</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="10">
         <v>2012</v>
       </c>
@@ -690,19 +678,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="2">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
         <v>0.6</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="10">
         <v>2013</v>
       </c>
@@ -716,19 +698,13 @@
         <v>35</v>
       </c>
       <c r="E5" s="2">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2">
         <v>11</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
         <v>0.65</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="10">
         <v>2014</v>
       </c>
@@ -742,19 +718,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="2">
-        <v>87</v>
-      </c>
-      <c r="F6" s="2">
         <v>13</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <v>0.63</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="10">
         <v>2015</v>
       </c>
@@ -768,19 +738,13 @@
         <v>49</v>
       </c>
       <c r="E7" s="2">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2">
         <v>13</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
         <v>0.65</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="10">
         <v>2016</v>
       </c>
@@ -794,19 +758,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="2">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2">
         <v>11</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
         <v>0.66</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="10">
         <v>2017</v>
       </c>
@@ -820,19 +778,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="2">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F9" s="1">
         <v>0.68</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="10">
         <v>2018</v>
       </c>
@@ -846,19 +798,13 @@
         <v>37</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
         <v>12</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F10" s="1">
         <v>0.7</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="10">
         <v>2019</v>
       </c>
@@ -872,19 +818,13 @@
         <v>34</v>
       </c>
       <c r="E11" s="2">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2">
         <v>12</v>
       </c>
-      <c r="G11" s="1">
+      <c r="F11" s="1">
         <v>0.69</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="10">
         <v>2020</v>
       </c>
@@ -898,19 +838,13 @@
         <v>32</v>
       </c>
       <c r="E12" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2">
         <v>14</v>
       </c>
-      <c r="G12" s="1">
+      <c r="F12" s="1">
         <v>0.67</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="10">
         <v>2021</v>
       </c>
@@ -926,17 +860,11 @@
       <c r="E13" s="2">
         <v>15</v>
       </c>
-      <c r="F13" s="2">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="1">
         <v>0.67</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="10">
         <v>2022</v>
       </c>
@@ -950,16 +878,10 @@
         <v>46</v>
       </c>
       <c r="E14" s="2">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2">
         <v>12</v>
       </c>
-      <c r="G14" s="1">
+      <c r="F14" s="1">
         <v>0.67</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.79</v>
       </c>
     </row>
   </sheetData>
